--- a/projects/housecalnsga4.xlsx
+++ b/projects/housecalnsga4.xlsx
@@ -4605,7 +4605,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4788,7 +4788,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="25">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4796,7 +4796,7 @@
         <v>494</v>
       </c>
       <c r="B20" s="25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2"/>
     </row>
